--- a/EDA_Entrega/data/correlation_age_psych_problems.xlsx
+++ b/EDA_Entrega/data/correlation_age_psych_problems.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,12 +487,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6627979395258995</v>
+        <v>-0.6627979395258056</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>-17709731.72491052</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1526921870.900115</v>
       </c>
     </row>
@@ -508,12 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6627979356867519</v>
+        <v>-0.66279793568667</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-17709.7317485598</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1526921.856016746</v>
       </c>
     </row>
@@ -534,12 +545,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.07249721205433315</v>
+        <v>-0.07249721205433809</v>
       </c>
       <c r="E4" t="n">
+        <v>2.678127823050677e-89</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.7724376528300437</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>247.6439651172088</v>
       </c>
     </row>
@@ -560,12 +574,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.04777220391318153</v>
+        <v>0.04777220391318898</v>
       </c>
       <c r="E5" t="n">
+        <v>2.356688722245611e-34</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.0002859736739569988</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.03378238888497444</v>
       </c>
     </row>
@@ -586,12 +603,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.05987163610200074</v>
+        <v>0.05987163610202</v>
       </c>
       <c r="E6" t="n">
+        <v>5.202756446126716e-53</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0009314003758429904</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1468502289252652</v>
       </c>
     </row>
@@ -612,12 +632,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1326889276583235</v>
+        <v>-0.1326889276583405</v>
       </c>
       <c r="E7" t="n">
+        <v>5.524993365257602e-261</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.004119627275524022</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.231381844538154</v>
       </c>
     </row>
@@ -638,12 +661,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.01809342710588829</v>
+        <v>-0.01809342710589033</v>
       </c>
       <c r="E8" t="n">
+        <v>2.810243342338395e-06</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.05239853476861091</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>84.34009150814778</v>
       </c>
     </row>
@@ -664,12 +690,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.2021277368797255</v>
+        <v>-0.2021277368797156</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>-0.2736177190924044</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>39.92356903721508</v>
       </c>
     </row>
@@ -690,12 +719,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.01596239983372035</v>
+        <v>-0.01596239983372047</v>
       </c>
       <c r="E10" t="n">
+        <v>4.457149409338203e-05</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.004140656689310986</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.330225662913115</v>
       </c>
     </row>
@@ -716,12 +748,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.09568765250584133</v>
+        <v>0.09568765250586125</v>
       </c>
       <c r="E11" t="n">
+        <v>7.612759212272109e-133</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.002104104622584649</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.4217623231686178</v>
       </c>
     </row>
@@ -742,12 +777,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0296972204151977</v>
+        <v>0.02969722041519873</v>
       </c>
       <c r="E12" t="n">
+        <v>3.069117217351011e-14</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.004318821379590488</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.626380646299243</v>
       </c>
     </row>
@@ -768,12 +806,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.0949417520577857</v>
+        <v>-0.09494175205778488</v>
       </c>
       <c r="E13" t="n">
+        <v>8.465828431812969e-133</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.1338697057170712</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>32.2357585527752</v>
       </c>
     </row>
@@ -794,12 +835,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.04737336316877155</v>
+        <v>0.04737336316876651</v>
       </c>
       <c r="E14" t="n">
+        <v>8.239655429189197e-34</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.002988203319721588</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.6723876549644521</v>
       </c>
     </row>
@@ -820,12 +864,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.06140337407163588</v>
+        <v>0.06140337407162773</v>
       </c>
       <c r="E15" t="n">
+        <v>6.528103921768543e-57</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.001643170873383408</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.3671559111671264</v>
       </c>
     </row>
@@ -846,12 +893,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2328970824735318</v>
+        <v>0.2328970824735232</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.154507916273246</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>7.076539205119818</v>
       </c>
     </row>
@@ -872,12 +922,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.006398376994333679</v>
+        <v>0.006398376994333985</v>
       </c>
       <c r="E17" t="n">
+        <v>0.09772848115617214</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.000243820926244245</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9.282783656559531</v>
       </c>
     </row>
@@ -898,12 +951,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.1298410457586793</v>
+        <v>-0.1298410457586761</v>
       </c>
       <c r="E18" t="n">
+        <v>7.266867357087297e-250</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.5183318654320739</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>223.5065291224758</v>
       </c>
     </row>
@@ -924,12 +980,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.02712712653979829</v>
+        <v>-0.02712712653980148</v>
       </c>
       <c r="E19" t="n">
+        <v>2.133560959827232e-12</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.008053331844162697</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>101.4500902453244</v>
       </c>
     </row>
@@ -950,12 +1009,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.04767049744623626</v>
+        <v>-0.04767049744623877</v>
       </c>
       <c r="E20" t="n">
+        <v>5.015569517202866e-35</v>
+      </c>
+      <c r="F20" t="n">
         <v>-1.78394519781643</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>447.7291669248388</v>
       </c>
     </row>
@@ -976,12 +1038,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1073546782553845</v>
+        <v>0.107354678255377</v>
       </c>
       <c r="E21" t="n">
+        <v>7.556312381271045e-171</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.02674586412729051</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>22.19457849897821</v>
       </c>
     </row>
@@ -1002,12 +1067,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.07603381882380439</v>
+        <v>0.07603381882380184</v>
       </c>
       <c r="E22" t="n">
+        <v>1.476058871023907e-86</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.004476987472542801</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.6556621837374662</v>
       </c>
     </row>
@@ -1028,12 +1096,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.0243793215622781</v>
+        <v>0.0243793215622818</v>
       </c>
       <c r="E23" t="n">
+        <v>2.748575985649199e-10</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.02412669505626219</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>2.912372256661913</v>
       </c>
     </row>
@@ -1054,12 +1125,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2275342362850533</v>
+        <v>0.2275342362850248</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.01227014225361006</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.3128058530392439</v>
       </c>
     </row>
@@ -1080,12 +1154,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.3130394950675797</v>
+        <v>-0.3130394950676288</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.07229772001558812</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>7.472508004246286</v>
       </c>
     </row>
@@ -1106,12 +1183,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.09199790864603298</v>
+        <v>0.0919979086460456</v>
       </c>
       <c r="E26" t="n">
+        <v>6.61882390601447e-123</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.01907668028517684</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.829463818131715</v>
       </c>
     </row>
@@ -1132,12 +1212,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.03774001106021488</v>
+        <v>-0.0377400110602199</v>
       </c>
       <c r="E27" t="n">
+        <v>1.531822794974581e-22</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.6583119124987017</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>200.2877897134702</v>
       </c>
     </row>
@@ -1158,12 +1241,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.009196066589521974</v>
+        <v>0.009196066589522276</v>
       </c>
       <c r="E28" t="n">
+        <v>0.01738740448665799</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.03728105508577854</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>107.0278156946497</v>
       </c>
     </row>
@@ -1184,12 +1270,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.1062684501627653</v>
+        <v>-0.1062684501627778</v>
       </c>
       <c r="E29" t="n">
+        <v>5.059082485308611e-164</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.04363328179182083</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>44.73783625400781</v>
       </c>
     </row>
@@ -1210,12 +1299,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.01194275581566258</v>
+        <v>0.01194275581566403</v>
       </c>
       <c r="E30" t="n">
+        <v>0.001984550722519708</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.02454537617399064</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>55.50243859320356</v>
       </c>
     </row>
@@ -1236,12 +1328,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.1358824921097856</v>
+        <v>-0.1358824921097838</v>
       </c>
       <c r="E31" t="n">
+        <v>6.059089552809948e-268</v>
+      </c>
+      <c r="F31" t="n">
         <v>-0.01952279841802478</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>15.00857274298374</v>
       </c>
     </row>
@@ -1262,12 +1357,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.08094674548455989</v>
+        <v>0.08094674548455423</v>
       </c>
       <c r="E32" t="n">
+        <v>1.620610054539412e-97</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.003436170097536625</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.954463252737136</v>
       </c>
     </row>
@@ -1288,12 +1386,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.1254895041055898</v>
+        <v>-0.1254895041055762</v>
       </c>
       <c r="E33" t="n">
+        <v>9.710210392317313e-228</v>
+      </c>
+      <c r="F33" t="n">
         <v>-0.4330388559873995</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>131.642875929699</v>
       </c>
     </row>
@@ -1314,12 +1415,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.1612872629935154</v>
+        <v>-0.1612872629935352</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.1447375508412076</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>39.95504861448105</v>
       </c>
     </row>
@@ -1340,12 +1444,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.08431905851858933</v>
+        <v>0.08431905851859391</v>
       </c>
       <c r="E35" t="n">
+        <v>1.443854104357264e-103</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.01809388427972045</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>29.24607050100134</v>
       </c>
     </row>
@@ -1366,12 +1473,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.1032325946941381</v>
+        <v>-0.1032325946941843</v>
       </c>
       <c r="E36" t="n">
+        <v>1.24309849434116e-153</v>
+      </c>
+      <c r="F36" t="n">
         <v>-0.01231554454807944</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>33.62147956846032</v>
       </c>
     </row>
@@ -1392,12 +1502,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1563692045096611</v>
+        <v>0.1563692045096439</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.09874486066963319</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>86.38509611764108</v>
       </c>
     </row>
@@ -1418,12 +1531,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1377134525162918</v>
+        <v>0.1377134525163126</v>
       </c>
       <c r="E38" t="n">
+        <v>2.716131421669441e-274</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.03233322765409092</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.254164072559168</v>
       </c>
     </row>
@@ -1444,12 +1560,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.008441376006331148</v>
+        <v>0.008441376006331033</v>
       </c>
       <c r="E39" t="n">
+        <v>0.03144421260361928</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.0008295657584610147</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.19661989324128</v>
       </c>
     </row>
@@ -1470,12 +1589,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.02166696025302788</v>
+        <v>0.02166696025302449</v>
       </c>
       <c r="E40" t="n">
+        <v>2.01160868539898e-08</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.005829845850573018</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139.0988770694907</v>
       </c>
     </row>
@@ -1496,12 +1618,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.09404422785471758</v>
+        <v>0.09404422785472005</v>
       </c>
       <c r="E41" t="n">
+        <v>2.445634335662358e-128</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.09016457342955855</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>51.30531605337363</v>
       </c>
     </row>
@@ -1522,12 +1647,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.07936239166133212</v>
+        <v>0.07936239166133287</v>
       </c>
       <c r="E42" t="n">
+        <v>5.827321767130221e-92</v>
+      </c>
+      <c r="F42" t="n">
         <v>14.30016515514654</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-639.4597549189784</v>
       </c>
     </row>
@@ -1548,12 +1676,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.01332745767105163</v>
+        <v>0.01332745767105398</v>
       </c>
       <c r="E43" t="n">
+        <v>0.0006820893337379782</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.003102369778687373</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>13.75125944764849</v>
       </c>
     </row>
@@ -1574,12 +1705,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.1255459904364937</v>
+        <v>-0.1255459904364767</v>
       </c>
       <c r="E44" t="n">
+        <v>1.618866039853893e-228</v>
+      </c>
+      <c r="F44" t="n">
         <v>-0.8030733809521425</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>283.8719270696887</v>
       </c>
     </row>
@@ -1600,12 +1734,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.191832447006623</v>
+        <v>-0.191832447006606</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>-0.009454376665744484</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5.148154547675462</v>
       </c>
     </row>
@@ -1626,12 +1763,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.09756759769422516</v>
+        <v>0.09756759769422528</v>
       </c>
       <c r="E46" t="n">
+        <v>1.914769509436046e-138</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.01333423662451647</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>13.05120886325177</v>
       </c>
     </row>
@@ -1652,12 +1792,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.06239200597598694</v>
+        <v>-0.0623920059759846</v>
       </c>
       <c r="E47" t="n">
+        <v>8.171959818122059e-59</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.6118494079216767</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>190.4389680304916</v>
       </c>
     </row>
@@ -1678,12 +1821,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.1684534021597673</v>
+        <v>-0.168453402159782</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.007324634245031303</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.382529856242292</v>
       </c>
     </row>
@@ -1704,12 +1850,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.0124457698730556</v>
+        <v>0.01244576987305382</v>
       </c>
       <c r="E49" t="n">
+        <v>0.001457363578779419</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.003901902244179065</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6.523009721358378</v>
       </c>
     </row>
@@ -1730,12 +1879,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.00757085684977379</v>
+        <v>0.00757085684977533</v>
       </c>
       <c r="E50" t="n">
+        <v>0.05112387783338642</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.004546718698316634</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>1.621015741633091</v>
       </c>
     </row>
@@ -1756,12 +1908,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1467824163374534</v>
+        <v>0.1467824163374764</v>
       </c>
       <c r="E51" t="n">
+        <v>2.666273972654967e-316</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.1904226640586523</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>17.55906168943154</v>
       </c>
     </row>
@@ -1782,12 +1937,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1783058889581245</v>
+        <v>-0.1783058889581391</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>-251.3681935206679</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>65281.85037409085</v>
       </c>
     </row>
@@ -1808,12 +1966,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02840578675165616</v>
+        <v>0.02840578675165581</v>
       </c>
       <c r="E53" t="n">
+        <v>2.061884209434991e-13</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.02657581722714026</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2.343087378335504</v>
       </c>
     </row>
@@ -1834,12 +1995,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.003822732261851742</v>
+        <v>-0.00382273226185176</v>
       </c>
       <c r="E54" t="n">
+        <v>0.3230419226286976</v>
+      </c>
+      <c r="F54" t="n">
         <v>-0.1630341603685286</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>599.1057268110812</v>
       </c>
     </row>
@@ -1860,12 +2024,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.02918493737687128</v>
+        <v>0.02918493737686943</v>
       </c>
       <c r="E55" t="n">
+        <v>4.479132915029844e-14</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.1187053002046794</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-1.062985899870033</v>
       </c>
     </row>
@@ -1886,12 +2053,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1050413698427007</v>
+        <v>0.1050413698426975</v>
       </c>
       <c r="E56" t="n">
+        <v>2.881796639782711e-163</v>
+      </c>
+      <c r="F56" t="n">
         <v>19.20899752661617</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>544.6219201311662</v>
       </c>
     </row>
@@ -1912,12 +2082,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.1841728084784984</v>
+        <v>-0.1841728084785237</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.692352232325728</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>151.3659791986172</v>
       </c>
     </row>
@@ -1938,12 +2111,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.0008897669627408887</v>
+        <v>-0.0008897669627422548</v>
       </c>
       <c r="E58" t="n">
+        <v>0.8436126249152718</v>
+      </c>
+      <c r="F58" t="n">
         <v>-4.330067155554174e-05</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>0.9134391991203881</v>
       </c>
     </row>
@@ -1964,12 +2140,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.03261778534017368</v>
+        <v>0.0326177853401733</v>
       </c>
       <c r="E59" t="n">
+        <v>1.134124394314742e-13</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.01879990839336803</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>11.92692090936222</v>
       </c>
     </row>
@@ -1990,12 +2169,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.1374034542109025</v>
+        <v>-0.1374034542109239</v>
       </c>
       <c r="E60" t="n">
+        <v>1.263280350319919e-233</v>
+      </c>
+      <c r="F60" t="n">
         <v>-135.4347276016281</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>45753.63249174685</v>
       </c>
     </row>
@@ -2016,12 +2198,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.02158629773887848</v>
+        <v>0.02158629773888084</v>
       </c>
       <c r="E61" t="n">
+        <v>3.335388701269643e-07</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.1408719214230733</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>211.147210774549</v>
       </c>
     </row>
@@ -2042,12 +2227,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.01964092047946184</v>
+        <v>0.01964092047946232</v>
       </c>
       <c r="E62" t="n">
+        <v>1.167875389834305e-06</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.0001073034667866551</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.04348261216664052</v>
       </c>
     </row>
@@ -2068,12 +2256,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.02679804455493922</v>
+        <v>0.02679804455494374</v>
       </c>
       <c r="E63" t="n">
+        <v>3.320478354164071e-11</v>
+      </c>
+      <c r="F63" t="n">
         <v>8.642340219615924e-05</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.03081847810459122</v>
       </c>
     </row>
@@ -2094,12 +2285,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.004328782986491293</v>
+        <v>-0.004328782986491879</v>
       </c>
       <c r="E64" t="n">
+        <v>0.2841514968304754</v>
+      </c>
+      <c r="F64" t="n">
         <v>-1.122560129702063e-05</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.007806175173227213</v>
       </c>
     </row>
@@ -2120,12 +2314,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.08376588171215668</v>
+        <v>0.08376588171215753</v>
       </c>
       <c r="E65" t="n">
+        <v>8.776608042295137e-96</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.001456832616827632</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.1310075373934551</v>
       </c>
     </row>
@@ -2146,12 +2343,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.01618798968036223</v>
+        <v>0.01618798968036371</v>
       </c>
       <c r="E66" t="n">
+        <v>6.181207586013966e-05</v>
+      </c>
+      <c r="F66" t="n">
         <v>3.863084365527755e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.001405260142258068</v>
       </c>
     </row>
@@ -2172,12 +2372,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.08148217798379542</v>
+        <v>0.0814821779838015</v>
       </c>
       <c r="E67" t="n">
+        <v>1.075340160451034e-90</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.001363327365271856</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.1243813432856099</v>
       </c>
     </row>
@@ -2198,12 +2401,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.08859237308475738</v>
+        <v>0.08859237308476126</v>
       </c>
       <c r="E68" t="n">
+        <v>5.934764294767311e-107</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.001334731426454967</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.1052592943790889</v>
       </c>
     </row>
@@ -2224,12 +2430,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.0829567649602916</v>
+        <v>0.08295676496026738</v>
       </c>
       <c r="E69" t="n">
+        <v>5.875616169353746e-94</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.001183196949527492</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.1051027084480121</v>
       </c>
     </row>
@@ -2250,12 +2459,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.08780727658664263</v>
+        <v>0.08780727658661908</v>
       </c>
       <c r="E70" t="n">
+        <v>4.469501113361401e-105</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.000140292834701483</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.001661473321837794</v>
       </c>
     </row>
@@ -2276,12 +2488,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.01845955506358786</v>
+        <v>0.01845955506358903</v>
       </c>
       <c r="E71" t="n">
+        <v>3.866399312588294e-06</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.0002296317171209563</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.6985813206837552</v>
       </c>
     </row>
@@ -2302,12 +2517,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.04320505478709033</v>
+        <v>-0.04320505478709402</v>
       </c>
       <c r="E72" t="n">
+        <v>2.964711252268885e-27</v>
+      </c>
+      <c r="F72" t="n">
         <v>-0.000396654907449378</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.1825901615880776</v>
       </c>
     </row>
@@ -2328,12 +2546,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.03355558330960963</v>
+        <v>-0.03355558330960741</v>
       </c>
       <c r="E73" t="n">
+        <v>4.559563754536851e-17</v>
+      </c>
+      <c r="F73" t="n">
         <v>-4.927909946113762e-05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.01193404192712958</v>
       </c>
     </row>
@@ -2354,12 +2575,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.005629510091116398</v>
+        <v>0.005629510091115961</v>
       </c>
       <c r="E74" t="n">
+        <v>0.1590005239044577</v>
+      </c>
+      <c r="F74" t="n">
         <v>4.040559175339445e-05</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.930538685202753</v>
       </c>
     </row>
@@ -2380,12 +2604,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.01572552442898166</v>
+        <v>-0.01572552442898266</v>
       </c>
       <c r="E75" t="n">
+        <v>8.328246661040589e-05</v>
+      </c>
+      <c r="F75" t="n">
         <v>-0.0001315954544554585</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.9612894622676381</v>
       </c>
     </row>
@@ -2406,12 +2633,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.08856544276396018</v>
+        <v>0.08856544276396415</v>
       </c>
       <c r="E76" t="n">
+        <v>3.240282791522564e-109</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.000381517236114017</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.01321985848616985</v>
       </c>
     </row>
@@ -2432,12 +2662,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.00892641495146727</v>
+        <v>0.008926414951468528</v>
       </c>
       <c r="E77" t="n">
+        <v>0.02556688350369471</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.002017452269450055</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.04840646984149713</v>
       </c>
     </row>
@@ -2458,12 +2691,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.04929956610518929</v>
+        <v>-0.04929956610519209</v>
       </c>
       <c r="E78" t="n">
+        <v>8.600693970135892e-29</v>
+      </c>
+      <c r="F78" t="n">
         <v>-0.0001335309275588877</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.03643547915081044</v>
       </c>
     </row>
@@ -2484,12 +2720,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.2037596083637358</v>
+        <v>-0.2037596083637038</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0.003938245433713308</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.6097391747049696</v>
       </c>
     </row>
@@ -2510,12 +2749,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.09100195602961217</v>
+        <v>-0.09100195602962562</v>
       </c>
       <c r="E80" t="n">
+        <v>3.74706879726495e-115</v>
+      </c>
+      <c r="F80" t="n">
         <v>-0.002315521664514306</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.5061810042213665</v>
       </c>
     </row>
@@ -2536,12 +2778,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.03731524354733719</v>
+        <v>-0.03731524354733221</v>
       </c>
       <c r="E81" t="n">
+        <v>1.165088042792331e-20</v>
+      </c>
+      <c r="F81" t="n">
         <v>-0.0002381319974613561</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.04957816364311764</v>
       </c>
     </row>
@@ -2562,12 +2807,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1782577622002641</v>
+        <v>-0.1782577622002974</v>
       </c>
       <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
         <v>-0.00823716074760167</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>1.509849340375341</v>
       </c>
     </row>
@@ -2588,12 +2836,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.008690752880669452</v>
+        <v>-0.008690752880668754</v>
       </c>
       <c r="E83" t="n">
+        <v>0.02988788179795606</v>
+      </c>
+      <c r="F83" t="n">
         <v>-9.159463270921753e-05</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.02472340953527062</v>
       </c>
     </row>
@@ -2614,12 +2865,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.01448102755745132</v>
+        <v>0.01448102755745063</v>
       </c>
       <c r="E84" t="n">
+        <v>0.0002962924759377728</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.003103508708499597</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.1647678963367535</v>
       </c>
     </row>
@@ -2640,12 +2894,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3302156483951571</v>
+        <v>-0.3302156483952204</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>-0.002168844777734807</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.2160834269260167</v>
       </c>
     </row>
@@ -2666,12 +2923,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.09034723574490135</v>
+        <v>-0.09034723574489077</v>
       </c>
       <c r="E86" t="n">
+        <v>4.005088543199504e-113</v>
+      </c>
+      <c r="F86" t="n">
         <v>-0.00280794325532775</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.6217486467689664</v>
       </c>
     </row>
@@ -2692,12 +2952,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.1832240713294303</v>
+        <v>-0.1832240713294642</v>
       </c>
       <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
         <v>-0.01133483737131046</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.168089394303073</v>
       </c>
     </row>
@@ -2718,12 +2981,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.1262776376919803</v>
+        <v>-0.1262776376919721</v>
       </c>
       <c r="E88" t="n">
+        <v>2.977603385676894e-220</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.001445336664255969</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.1921784003803218</v>
       </c>
     </row>
@@ -2744,12 +3010,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.0959419359797576</v>
+        <v>-0.09594193597976022</v>
       </c>
       <c r="E89" t="n">
+        <v>1.455034756947803e-130</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.0005019974256111427</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.1040232154850789</v>
       </c>
     </row>
@@ -2770,12 +3039,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.01980666722255158</v>
+        <v>0.01980666722255145</v>
       </c>
       <c r="E90" t="n">
+        <v>5.498874193783834e-07</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.0002291547159022923</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.2315218318105267</v>
       </c>
     </row>
@@ -2796,12 +3068,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.02286613785700482</v>
+        <v>-0.02286613785700546</v>
       </c>
       <c r="E91" t="n">
+        <v>7.390658642448305e-09</v>
+      </c>
+      <c r="F91" t="n">
         <v>-0.0003074873096450483</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.7014842865460159</v>
       </c>
     </row>
@@ -2822,12 +3097,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1500542259972774</v>
+        <v>-0.1500542259972804</v>
       </c>
       <c r="E92" t="n">
+        <v>1.691740059237929e-318</v>
+      </c>
+      <c r="F92" t="n">
         <v>-0.001945642787430264</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.8288820441739793</v>
       </c>
     </row>
@@ -2848,12 +3126,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.07232269184026509</v>
+        <v>-0.07232269184025908</v>
       </c>
       <c r="E93" t="n">
+        <v>9.854119606785909e-75</v>
+      </c>
+      <c r="F93" t="n">
         <v>-0.001212141279575723</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.7315989941128811</v>
       </c>
     </row>
@@ -2874,12 +3155,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.09129949159109325</v>
+        <v>0.09129949159109302</v>
       </c>
       <c r="E94" t="n">
+        <v>1.703399834953466e-113</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.0002315371240123492</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.0196284988605605</v>
       </c>
     </row>
@@ -2900,12 +3184,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.09053715629833291</v>
+        <v>0.09053715629833221</v>
       </c>
       <c r="E95" t="n">
+        <v>1.24096160511442e-111</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.0001899214256409186</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.01659015528925244</v>
       </c>
     </row>
@@ -2926,12 +3213,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.03041248689904425</v>
+        <v>0.03041248689904483</v>
       </c>
       <c r="E96" t="n">
+        <v>5.15528388477245e-14</v>
+      </c>
+      <c r="F96" t="n">
         <v>1.765843567718043e-05</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.006592490183654612</v>
       </c>
     </row>
@@ -2952,12 +3242,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.002365095376439791</v>
+        <v>0.002365095376439793</v>
       </c>
       <c r="E97" t="n">
+        <v>0.629850114915985</v>
+      </c>
+      <c r="F97" t="n">
         <v>0.0002294031147445472</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>5.930228753796404</v>
       </c>
     </row>
@@ -2978,12 +3271,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.03910691679192754</v>
+        <v>0.03910691679193205</v>
       </c>
       <c r="E98" t="n">
+        <v>2.413660165539729e-16</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.06881346911890859</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>49.95569765961054</v>
       </c>
     </row>
@@ -3004,12 +3300,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.1148712132132021</v>
+        <v>-0.114871213213186</v>
       </c>
       <c r="E99" t="n">
+        <v>2.245412330493856e-131</v>
+      </c>
+      <c r="F99" t="n">
         <v>-0.4535364723582144</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>220.3622124036492</v>
       </c>
     </row>
@@ -3030,12 +3329,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.006409172001760794</v>
+        <v>-0.006409172001761816</v>
       </c>
       <c r="E100" t="n">
+        <v>0.1728470752701334</v>
+      </c>
+      <c r="F100" t="n">
         <v>-0.002603049627404076</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>3.584992757971404</v>
       </c>
     </row>
@@ -3056,12 +3358,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2410728722083791</v>
+        <v>0.2410728722083626</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.01246315245269637</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.2732854780499825</v>
       </c>
     </row>
@@ -3082,12 +3387,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6089793045995339</v>
+        <v>-0.6089793045995537</v>
       </c>
       <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
         <v>-16948826.3020929</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1461115121.882507</v>
       </c>
     </row>
@@ -3108,12 +3416,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6089792997888265</v>
+        <v>-0.6089792997888419</v>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>-16948.82633603601</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1461115.107199096</v>
       </c>
     </row>
@@ -3134,12 +3445,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.0693134569404458</v>
+        <v>-0.06931345694044418</v>
       </c>
       <c r="E104" t="n">
+        <v>8.438755453055468e-24</v>
+      </c>
+      <c r="F104" t="n">
         <v>-0.6078494518045503</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>232.3565911652518</v>
       </c>
     </row>
@@ -3160,12 +3474,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.02809397635185496</v>
+        <v>0.02809397635185328</v>
       </c>
       <c r="E105" t="n">
+        <v>0.000141376225396624</v>
+      </c>
+      <c r="F105" t="n">
         <v>0.0001717757012499626</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.04232783380951598</v>
       </c>
     </row>
@@ -3186,12 +3503,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.05794266155142701</v>
+        <v>0.0579426615514374</v>
       </c>
       <c r="E106" t="n">
+        <v>4.021798521337897e-15</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.0009242254144984435</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.1547746231556332</v>
       </c>
     </row>
@@ -3212,12 +3532,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.06742068557776612</v>
+        <v>-0.06742068557776994</v>
       </c>
       <c r="E107" t="n">
+        <v>1.837371161800528e-20</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.002300946483515097</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>4.093350762855621</v>
       </c>
     </row>
@@ -3238,12 +3561,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.00290671164675331</v>
+        <v>0.002906711646753107</v>
       </c>
       <c r="E108" t="n">
+        <v>0.6899015240230759</v>
+      </c>
+      <c r="F108" t="n">
         <v>0.009122698885533244</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>82.0594446216312</v>
       </c>
     </row>
@@ -3264,12 +3590,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.1411544125708691</v>
+        <v>-0.1411544125708695</v>
       </c>
       <c r="E109" t="n">
+        <v>3.371677609738519e-84</v>
+      </c>
+      <c r="F109" t="n">
         <v>-0.222911518715233</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>36.10627794830325</v>
       </c>
     </row>
@@ -3290,12 +3619,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.1317269786708745</v>
+        <v>-0.1317269786708727</v>
       </c>
       <c r="E110" t="n">
+        <v>8.383342531944105e-72</v>
+      </c>
+      <c r="F110" t="n">
         <v>-0.01190140022706784</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>2.872343674135974</v>
       </c>
     </row>
@@ -3316,12 +3648,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.06487682122215745</v>
+        <v>0.06487682122215965</v>
       </c>
       <c r="E111" t="n">
+        <v>1.416968465754059e-18</v>
+      </c>
+      <c r="F111" t="n">
         <v>0.001315216138804436</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.4778945085401821</v>
       </c>
     </row>
@@ -3342,12 +3677,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-0.01054215091630474</v>
+        <v>-0.01054215091630525</v>
       </c>
       <c r="E112" t="n">
+        <v>0.1533352152394202</v>
+      </c>
+      <c r="F112" t="n">
         <v>-0.00168276882042617</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>4.092478059102802</v>
       </c>
     </row>
@@ -3368,12 +3706,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.04092056046281299</v>
+        <v>-0.04092056046281117</v>
       </c>
       <c r="E113" t="n">
+        <v>2.13038565219829e-08</v>
+      </c>
+      <c r="F113" t="n">
         <v>-0.0563503833321133</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>26.02441686953088</v>
       </c>
     </row>
@@ -3394,12 +3735,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.05334803724076138</v>
+        <v>0.05334803724076206</v>
       </c>
       <c r="E114" t="n">
+        <v>4.811843174023242e-13</v>
+      </c>
+      <c r="F114" t="n">
         <v>0.003477999185548042</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.6505343626493861</v>
       </c>
     </row>
@@ -3420,12 +3764,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.1001685952787773</v>
+        <v>0.1001685952787711</v>
       </c>
       <c r="E115" t="n">
+        <v>4.105354963177112e-43</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.002424942058432039</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.2710208860630952</v>
       </c>
     </row>
@@ -3446,12 +3793,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2033392257819892</v>
+        <v>0.2033392257819943</v>
       </c>
       <c r="E116" t="n">
+        <v>2.818273271315256e-175</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.1416364249109848</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>7.7976729927507</v>
       </c>
     </row>
@@ -3472,12 +3822,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.02247450374634211</v>
+        <v>0.02247450374634377</v>
       </c>
       <c r="E117" t="n">
+        <v>0.002037133984372475</v>
+      </c>
+      <c r="F117" t="n">
         <v>0.0008748029058762131</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>9.250510778437745</v>
       </c>
     </row>
@@ -3498,12 +3851,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.08357876053795096</v>
+        <v>-0.08357876053795076</v>
       </c>
       <c r="E118" t="n">
+        <v>1.350339836573916e-30</v>
+      </c>
+      <c r="F118" t="n">
         <v>-0.3533873945745373</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>211.0775960885242</v>
       </c>
     </row>
@@ -3524,12 +3880,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.0451667932755362</v>
+        <v>-0.04516679327553381</v>
       </c>
       <c r="E119" t="n">
+        <v>5.392525787404582e-10</v>
+      </c>
+      <c r="F119" t="n">
         <v>-0.0145280843598602</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>101.5459682991625</v>
       </c>
     </row>
@@ -3550,12 +3909,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.0592140273801743</v>
+        <v>-0.05921402738017627</v>
       </c>
       <c r="E120" t="n">
+        <v>4.042853802756899e-16</v>
+      </c>
+      <c r="F120" t="n">
         <v>-2.279227425870866</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>464.811399437635</v>
       </c>
     </row>
@@ -3576,12 +3938,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.09003039957864527</v>
+        <v>0.09003039957864686</v>
       </c>
       <c r="E121" t="n">
+        <v>3.444157605758244e-35</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.02403006498680159</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>22.46249745934724</v>
       </c>
     </row>
@@ -3602,12 +3967,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.04063624469359874</v>
+        <v>0.04063624469359947</v>
       </c>
       <c r="E122" t="n">
+        <v>2.306062898268401e-08</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.002266287506489159</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.7924964230813661</v>
       </c>
     </row>
@@ -3628,12 +3996,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.04378251001348201</v>
+        <v>0.04378251001348106</v>
       </c>
       <c r="E123" t="n">
+        <v>1.800044899924715e-09</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.04159222686089849</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>2.042896607565888</v>
       </c>
     </row>
@@ -3654,12 +4025,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.1884302499308585</v>
+        <v>0.1884302499308556</v>
       </c>
       <c r="E124" t="n">
+        <v>2.345526733316436e-150</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.009289995824914212</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.5179206155438321</v>
       </c>
     </row>
@@ -3680,12 +4054,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.3241389554699173</v>
+        <v>-0.3241389554699246</v>
       </c>
       <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
         <v>-0.06772933214575531</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>6.910059728002306</v>
       </c>
     </row>
@@ -3706,12 +4083,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.08118320520863152</v>
+        <v>0.08118320520863316</v>
       </c>
       <c r="E126" t="n">
+        <v>3.29017295308462e-28</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.01767232776080258</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>1.992630900448915</v>
       </c>
     </row>
@@ -3732,12 +4112,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.008038367660289671</v>
+        <v>-0.008038367660289416</v>
       </c>
       <c r="E127" t="n">
+        <v>0.2701846125086709</v>
+      </c>
+      <c r="F127" t="n">
         <v>-0.1552272459638155</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>150.0717013247857</v>
       </c>
     </row>
@@ -3758,12 +4141,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.02958282527514769</v>
+        <v>-0.02958282527514831</v>
       </c>
       <c r="E128" t="n">
+        <v>4.990844418701512e-05</v>
+      </c>
+      <c r="F128" t="n">
         <v>-0.1556967341686668</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>125.2385232348063</v>
       </c>
     </row>
@@ -3784,12 +4170,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.1110043955561967</v>
+        <v>-0.1110043955561976</v>
       </c>
       <c r="E129" t="n">
+        <v>9.877119482313283e-52</v>
+      </c>
+      <c r="F129" t="n">
         <v>-0.0503271147422785</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>44.94383277610175</v>
       </c>
     </row>
@@ -3810,12 +4199,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.03823491072183037</v>
+        <v>0.03823491072183119</v>
       </c>
       <c r="E130" t="n">
+        <v>1.489677454863877e-07</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.0740938382796355</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>50.04149525537387</v>
       </c>
     </row>
@@ -3836,12 +4228,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.1140329438553833</v>
+        <v>-0.1140329438553829</v>
       </c>
       <c r="E131" t="n">
+        <v>1.606848185648128e-54</v>
+      </c>
+      <c r="F131" t="n">
         <v>-0.01782808157590125</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>14.77280882547097</v>
       </c>
     </row>
@@ -3862,12 +4257,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.03250426145130111</v>
+        <v>0.03250426145129853</v>
       </c>
       <c r="E132" t="n">
+        <v>8.074064683625083e-06</v>
+      </c>
+      <c r="F132" t="n">
         <v>0.001459031743383454</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>4.090386903333521</v>
       </c>
     </row>
@@ -3888,12 +4286,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.08828540107007346</v>
+        <v>-0.08828540107007371</v>
       </c>
       <c r="E133" t="n">
+        <v>4.688783484372668e-33</v>
+      </c>
+      <c r="F133" t="n">
         <v>-0.3190052242640998</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>122.3711351680143</v>
       </c>
     </row>
@@ -3914,12 +4315,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.1428465385858727</v>
+        <v>-0.1428465385858768</v>
       </c>
       <c r="E134" t="n">
+        <v>3.109504228855725e-84</v>
+      </c>
+      <c r="F134" t="n">
         <v>-0.1390589960242614</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>39.87249306804584</v>
       </c>
     </row>
@@ -3940,12 +4344,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.1322350016069063</v>
+        <v>0.1322350016069015</v>
       </c>
       <c r="E135" t="n">
+        <v>2.30544384353118e-72</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.02984764554662054</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>28.4037159269024</v>
       </c>
     </row>
@@ -3966,12 +4373,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.01427986175867558</v>
+        <v>-0.01427986175867543</v>
       </c>
       <c r="E136" t="n">
+        <v>0.05327155066213663</v>
+      </c>
+      <c r="F136" t="n">
         <v>-0.001907948287177024</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>32.83074955442171</v>
       </c>
     </row>
@@ -3995,9 +4405,12 @@
         <v>0.1524152078619986</v>
       </c>
       <c r="E137" t="n">
+        <v>2.114958501336402e-96</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.1100905218554853</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>85.62668550236255</v>
       </c>
     </row>
@@ -4018,12 +4431,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1270643923411499</v>
+        <v>0.1270643923411523</v>
       </c>
       <c r="E138" t="n">
+        <v>6.718898772059728e-67</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.03032492929348566</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>6.269257731797095</v>
       </c>
     </row>
@@ -4044,12 +4460,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.009746952976653449</v>
+        <v>-0.00974695297665319</v>
       </c>
       <c r="E139" t="n">
+        <v>0.1878605991780052</v>
+      </c>
+      <c r="F139" t="n">
         <v>-0.001025598871574397</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>11.27203026131493</v>
       </c>
     </row>
@@ -4070,12 +4489,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.0007454581239703501</v>
+        <v>0.0007454581239704947</v>
       </c>
       <c r="E140" t="n">
+        <v>0.9184428263495441</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.0002214753252759769</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>139.4178003360707</v>
       </c>
     </row>
@@ -4096,12 +4518,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.08485881391314627</v>
+        <v>0.08485881391314801</v>
       </c>
       <c r="E141" t="n">
+        <v>1.122898631353882e-30</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.0880829907942665</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>51.19716683763313</v>
       </c>
     </row>
@@ -4122,12 +4547,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.04700336089366173</v>
+        <v>0.0470033608936616</v>
       </c>
       <c r="E142" t="n">
+        <v>2.054229445349617e-10</v>
+      </c>
+      <c r="F142" t="n">
         <v>6.225258890954206</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-145.3087184586545</v>
       </c>
     </row>
@@ -4148,12 +4576,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.004369568025489113</v>
+        <v>0.004369568025489351</v>
       </c>
       <c r="E143" t="n">
+        <v>0.555028186303414</v>
+      </c>
+      <c r="F143" t="n">
         <v>0.001072179900753602</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>13.76991590068652</v>
       </c>
     </row>
@@ -4174,12 +4605,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.08561001688747917</v>
+        <v>-0.08561001688747746</v>
       </c>
       <c r="E144" t="n">
+        <v>2.202323538153101e-31</v>
+      </c>
+      <c r="F144" t="n">
         <v>-0.5906767200433669</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>273.0171459187127</v>
       </c>
     </row>
@@ -4200,12 +4634,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.1974301884948954</v>
+        <v>-0.1974301884948885</v>
       </c>
       <c r="E145" t="n">
+        <v>9.882900579692938e-162</v>
+      </c>
+      <c r="F145" t="n">
         <v>-0.01074190074701597</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>5.210559885824924</v>
       </c>
     </row>
@@ -4226,12 +4663,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.006174031033372175</v>
+        <v>0.006174031033372366</v>
       </c>
       <c r="E146" t="n">
+        <v>0.4014020209352023</v>
+      </c>
+      <c r="F146" t="n">
         <v>0.0009763957087532245</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>13.98883223280086</v>
       </c>
     </row>
@@ -4252,12 +4692,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.06270498271244619</v>
+        <v>-0.06270498271244644</v>
       </c>
       <c r="E147" t="n">
+        <v>6.709957798111641e-18</v>
+      </c>
+      <c r="F147" t="n">
         <v>-0.6329041133182778</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>202.5977161969573</v>
       </c>
     </row>
@@ -4278,12 +4721,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.107343400987854</v>
+        <v>-0.1073434009878561</v>
       </c>
       <c r="E148" t="n">
+        <v>1.76842034935062e-49</v>
+      </c>
+      <c r="F148" t="n">
         <v>-0.004931216375959909</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>7.217961544018545</v>
       </c>
     </row>
@@ -4304,12 +4750,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.05348792896826838</v>
+        <v>-0.05348792896826862</v>
       </c>
       <c r="E149" t="n">
+        <v>4.183218602602095e-13</v>
+      </c>
+      <c r="F149" t="n">
         <v>-0.01120358477159226</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>7.632156291080619</v>
       </c>
     </row>
@@ -4330,12 +4779,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.02808383072999406</v>
+        <v>-0.02808383072999525</v>
       </c>
       <c r="E150" t="n">
+        <v>0.0001179516681926617</v>
+      </c>
+      <c r="F150" t="n">
         <v>-0.01844054070690397</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>3.311015168747946</v>
       </c>
     </row>
@@ -4356,12 +4808,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.1523352295177674</v>
+        <v>0.1523352295177717</v>
       </c>
       <c r="E151" t="n">
+        <v>6.027517228267376e-98</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.2021912689308824</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>16.83267426498444</v>
       </c>
     </row>
@@ -4382,12 +4837,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.1714931501652191</v>
+        <v>-0.1714931501652201</v>
       </c>
       <c r="E152" t="n">
+        <v>2.592124209034346e-124</v>
+      </c>
+      <c r="F152" t="n">
         <v>-250.2479877832043</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>64954.40424357358</v>
       </c>
     </row>
@@ -4408,12 +4866,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-0.001561713063341764</v>
+        <v>-0.00156171306334156</v>
       </c>
       <c r="E153" t="n">
+        <v>0.8302736755601696</v>
+      </c>
+      <c r="F153" t="n">
         <v>-0.0007109379221546489</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>3.975768508947863</v>
       </c>
     </row>
@@ -4434,12 +4895,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.04158982644889362</v>
+        <v>-0.04158982644889395</v>
       </c>
       <c r="E154" t="n">
+        <v>1.124354279066922e-08</v>
+      </c>
+      <c r="F154" t="n">
         <v>-2.597075067475846</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>798.5410274587816</v>
       </c>
     </row>
@@ -4460,12 +4924,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.06371105954094568</v>
+        <v>0.06371105954094504</v>
       </c>
       <c r="E155" t="n">
+        <v>2.069204762611214e-18</v>
+      </c>
+      <c r="F155" t="n">
         <v>0.5480632785212287</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>-26.03818909318935</v>
       </c>
     </row>
@@ -4486,12 +4953,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.07472611922161011</v>
+        <v>0.07472611922160941</v>
       </c>
       <c r="E156" t="n">
+        <v>9.543335459390222e-25</v>
+      </c>
+      <c r="F156" t="n">
         <v>11.67612714983814</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>1037.504312657327</v>
       </c>
     </row>
@@ -4512,12 +4982,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1314343663321739</v>
+        <v>-0.1314343663321751</v>
       </c>
       <c r="E157" t="n">
+        <v>2.27872051589682e-73</v>
+      </c>
+      <c r="F157" t="n">
         <v>-0.5451343669618233</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>137.3643892419906</v>
       </c>
     </row>
@@ -4538,12 +5011,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.1034091989468391</v>
+        <v>-0.1034091989468371</v>
       </c>
       <c r="E158" t="n">
+        <v>7.009609936784953e-33</v>
+      </c>
+      <c r="F158" t="n">
         <v>-0.008449073223429408</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>1.576103292557822</v>
       </c>
     </row>
@@ -4564,12 +5040,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.1170981928209811</v>
+        <v>0.1170981928209851</v>
       </c>
       <c r="E159" t="n">
+        <v>3.693452241148376e-44</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.06321245697136388</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>8.400791143524939</v>
       </c>
     </row>
@@ -4590,12 +5069,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.1449397257903031</v>
+        <v>-0.1449397257903</v>
       </c>
       <c r="E160" t="n">
+        <v>5.878933688751773e-75</v>
+      </c>
+      <c r="F160" t="n">
         <v>-154.1842434185439</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>45885.58428258531</v>
       </c>
     </row>
@@ -4616,12 +5098,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.05530990302546859</v>
+        <v>-0.05530990302546791</v>
       </c>
       <c r="E161" t="n">
+        <v>3.429790669180725e-12</v>
+      </c>
+      <c r="F161" t="n">
         <v>-0.3259638536702788</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>250.9373790693665</v>
       </c>
     </row>
@@ -4642,12 +5127,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.07501784928896445</v>
+        <v>0.07501784928896389</v>
       </c>
       <c r="E162" t="n">
+        <v>2.174641295589983e-23</v>
+      </c>
+      <c r="F162" t="n">
         <v>0.0003125838796567102</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>0.02890022694644635</v>
       </c>
     </row>
@@ -4668,12 +5156,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.07256602332716011</v>
+        <v>0.07256602332716233</v>
       </c>
       <c r="E163" t="n">
+        <v>5.516020519715635e-22</v>
+      </c>
+      <c r="F163" t="n">
         <v>0.0002333978954941844</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>0.02015482093743196</v>
       </c>
     </row>
@@ -4694,12 +5185,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.01662590377452119</v>
+        <v>0.01662590377452117</v>
       </c>
       <c r="E164" t="n">
+        <v>0.02742020927597431</v>
+      </c>
+      <c r="F164" t="n">
         <v>1.122827760810956e-05</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>0.006043373830846691</v>
       </c>
     </row>
@@ -4720,12 +5214,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.03951007784407502</v>
+        <v>0.03951007784407513</v>
       </c>
       <c r="E165" t="n">
+        <v>1.581304224254873e-07</v>
+      </c>
+      <c r="F165" t="n">
         <v>0.0007221012913936119</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.1792596034108483</v>
       </c>
     </row>
@@ -4746,12 +5243,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.007029328482161409</v>
+        <v>0.007029328482161703</v>
       </c>
       <c r="E166" t="n">
+        <v>0.3511238517771591</v>
+      </c>
+      <c r="F166" t="n">
         <v>1.775792613642985e-06</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>0.001548430660522659</v>
       </c>
     </row>
@@ -4772,12 +5272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.03653565116248646</v>
+        <v>0.03653565116248737</v>
       </c>
       <c r="E167" t="n">
+        <v>1.247986047154077e-06</v>
+      </c>
+      <c r="F167" t="n">
         <v>0.0006427282762051663</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>0.1718608272405474</v>
       </c>
     </row>
@@ -4798,12 +5301,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.1120025043625118</v>
+        <v>0.1120025043625151</v>
       </c>
       <c r="E168" t="n">
+        <v>3.132216146460434e-50</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.001770767299764434</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>0.07182759398516557</v>
       </c>
     </row>
@@ -4824,12 +5330,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.1179922651873782</v>
+        <v>0.1179922651873746</v>
       </c>
       <c r="E169" t="n">
+        <v>1.427760058699941e-55</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.001779336868179967</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>0.06230169274794291</v>
       </c>
     </row>
@@ -4850,12 +5359,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.1048737948050655</v>
+        <v>0.1048737948050658</v>
       </c>
       <c r="E170" t="n">
+        <v>3.262645864818494e-44</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.0001234055071028462</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>-0.001171467743393829</v>
       </c>
     </row>
@@ -4876,12 +5388,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.04597428969990681</v>
+        <v>0.04597428969990804</v>
       </c>
       <c r="E171" t="n">
+        <v>6.416617470486415e-10</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.000645082504332181</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.6637650161204131</v>
       </c>
     </row>
@@ -4902,12 +5417,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.07367825918930231</v>
+        <v>-0.07367825918930215</v>
       </c>
       <c r="E172" t="n">
+        <v>3.690642429194041e-23</v>
+      </c>
+      <c r="F172" t="n">
         <v>-0.0007436748667576025</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.2095219631917258</v>
       </c>
     </row>
@@ -4928,12 +5446,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.01465375084175801</v>
+        <v>-0.01465375084175803</v>
       </c>
       <c r="E173" t="n">
+        <v>0.04897444441924963</v>
+      </c>
+      <c r="F173" t="n">
         <v>-2.237807815560417e-05</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>0.009995061102010736</v>
       </c>
     </row>
@@ -4954,12 +5475,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-0.006053116291727476</v>
+        <v>-0.006053116291727577</v>
       </c>
       <c r="E174" t="n">
+        <v>0.4160838488551902</v>
+      </c>
+      <c r="F174" t="n">
         <v>-4.266885477626646e-05</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>0.9389291521866466</v>
       </c>
     </row>
@@ -4980,12 +5504,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.01519510325760014</v>
+        <v>0.01519510325759958</v>
       </c>
       <c r="E175" t="n">
+        <v>0.04122367025300362</v>
+      </c>
+      <c r="F175" t="n">
         <v>0.0001181615794469505</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>0.9483552053622215</v>
       </c>
     </row>
@@ -5006,12 +5533,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.09133059911341712</v>
+        <v>0.09133059911341607</v>
       </c>
       <c r="E176" t="n">
+        <v>9.740855392272993e-35</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.0003256627130744091</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>0.01560843506272622</v>
       </c>
     </row>
@@ -5032,12 +5562,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-0.06785321450999642</v>
+        <v>-0.06785321450999773</v>
       </c>
       <c r="E177" t="n">
+        <v>2.567368353117806e-19</v>
+      </c>
+      <c r="F177" t="n">
         <v>-0.001791193269243395</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>0.2719200704327746</v>
       </c>
     </row>
@@ -5058,12 +5591,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.01202245167525186</v>
+        <v>-0.01202245167525164</v>
       </c>
       <c r="E178" t="n">
+        <v>0.1587705138309911</v>
+      </c>
+      <c r="F178" t="n">
         <v>-4.048255653884565e-05</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>0.03196620622215304</v>
       </c>
     </row>
@@ -5084,12 +5620,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.203863702522277</v>
+        <v>-0.2038637025222793</v>
       </c>
       <c r="E179" t="n">
+        <v>1.141136079917312e-162</v>
+      </c>
+      <c r="F179" t="n">
         <v>-0.004627997959714309</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>0.6816899957463358</v>
       </c>
     </row>
@@ -5110,12 +5649,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.1321491407155179</v>
+        <v>-0.1321491407155183</v>
       </c>
       <c r="E180" t="n">
+        <v>5.213247165643028e-69</v>
+      </c>
+      <c r="F180" t="n">
         <v>-0.003466124290526247</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>0.5911315725995778</v>
       </c>
     </row>
@@ -5136,12 +5678,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.102296421443906</v>
+        <v>-0.1022964214439055</v>
       </c>
       <c r="E181" t="n">
+        <v>1.035998864722909e-41</v>
+      </c>
+      <c r="F181" t="n">
         <v>-0.0009291123120714146</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>0.1021099891448814</v>
       </c>
     </row>
@@ -5162,12 +5707,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.2107582993554523</v>
+        <v>-0.2107582993554422</v>
       </c>
       <c r="E182" t="n">
+        <v>6.550752497225328e-175</v>
+      </c>
+      <c r="F182" t="n">
         <v>-0.01086397748362906</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1.729518610222792</v>
       </c>
     </row>
@@ -5188,12 +5736,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-0.01641363984508522</v>
+        <v>-0.01641363984508503</v>
       </c>
       <c r="E183" t="n">
+        <v>0.03017603171392051</v>
+      </c>
+      <c r="F183" t="n">
         <v>-0.0001734726501763407</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>0.02951625790344553</v>
       </c>
     </row>
@@ -5214,12 +5765,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-0.02339592553885673</v>
+        <v>-0.02339592553885662</v>
       </c>
       <c r="E184" t="n">
+        <v>0.002000574518753485</v>
+      </c>
+      <c r="F184" t="n">
         <v>-0.0001389014600594542</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>0.02499501924261314</v>
       </c>
     </row>
@@ -5240,12 +5794,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.3538066984854094</v>
+        <v>-0.353806698485411</v>
       </c>
       <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
         <v>-0.002661134867476345</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>0.2480444892930422</v>
       </c>
     </row>
@@ -5266,12 +5823,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.1031954878336884</v>
+        <v>-0.1031954878336878</v>
       </c>
       <c r="E186" t="n">
+        <v>2.022898308627482e-42</v>
+      </c>
+      <c r="F186" t="n">
         <v>-0.003264368435253911</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>0.6498490091674398</v>
       </c>
     </row>
@@ -5292,12 +5852,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.2286434907320106</v>
+        <v>-0.2286434907320056</v>
       </c>
       <c r="E187" t="n">
+        <v>2.530398451455611e-206</v>
+      </c>
+      <c r="F187" t="n">
         <v>-0.01543143352646453</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>2.496007581436067</v>
       </c>
     </row>
@@ -5318,12 +5881,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.1280545271656514</v>
+        <v>-0.1280545271656522</v>
       </c>
       <c r="E188" t="n">
+        <v>1.132463016153956e-64</v>
+      </c>
+      <c r="F188" t="n">
         <v>-0.001257272058900168</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>0.1823659536806013</v>
       </c>
     </row>
@@ -5344,12 +5910,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.05891582370420356</v>
+        <v>-0.0589158237042042</v>
       </c>
       <c r="E189" t="n">
+        <v>2.736844560157054e-15</v>
+      </c>
+      <c r="F189" t="n">
         <v>-0.0003008166424994927</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.0890072952406581</v>
       </c>
     </row>
@@ -5370,12 +5939,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.02414675573745424</v>
+        <v>0.02414675573745401</v>
       </c>
       <c r="E190" t="n">
+        <v>0.00121025386960828</v>
+      </c>
+      <c r="F190" t="n">
         <v>0.0002935368760223265</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.2274587710002365</v>
       </c>
     </row>
@@ -5396,12 +5968,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-0.02390455001329994</v>
+        <v>-0.02390455001329991</v>
       </c>
       <c r="E191" t="n">
+        <v>0.001355420508830429</v>
+      </c>
+      <c r="F191" t="n">
         <v>-0.000334258570362645</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>0.7049952616624525</v>
       </c>
     </row>
@@ -5422,12 +5997,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.170654264745293</v>
+        <v>-0.1706542647452944</v>
       </c>
       <c r="E192" t="n">
+        <v>1.892265782886398e-117</v>
+      </c>
+      <c r="F192" t="n">
         <v>-0.002376843412644269</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>0.8656522788835584</v>
       </c>
     </row>
@@ -5448,12 +6026,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.02271627582666903</v>
+        <v>-0.02271627582666851</v>
       </c>
       <c r="E193" t="n">
+        <v>0.002367077736643487</v>
+      </c>
+      <c r="F193" t="n">
         <v>-0.0003881460107241396</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>0.6834311938688692</v>
       </c>
     </row>
@@ -5474,12 +6055,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.07660501181948146</v>
+        <v>0.07660501181948068</v>
       </c>
       <c r="E194" t="n">
+        <v>2.533364989456893e-24</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.0002087093512772615</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>0.02044207486232223</v>
       </c>
     </row>
@@ -5500,12 +6084,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.1551930586327736</v>
+        <v>0.1551930586327764</v>
       </c>
       <c r="E195" t="n">
+        <v>2.753161210194462e-95</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.0003298942322035299</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>0.006045028689213049</v>
       </c>
     </row>
@@ -5526,12 +6113,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.09792085701705802</v>
+        <v>0.09792085701706046</v>
       </c>
       <c r="E196" t="n">
+        <v>9.424738721592677e-39</v>
+      </c>
+      <c r="F196" t="n">
         <v>6.189855176536267e-05</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.003416570471569164</v>
       </c>
     </row>
@@ -5552,12 +6142,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-0.03528778584067326</v>
+        <v>-0.03528778584067551</v>
       </c>
       <c r="E197" t="n">
+        <v>0.0001326476921442157</v>
+      </c>
+      <c r="F197" t="n">
         <v>-0.004487232365702352</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>6.376904962541236</v>
       </c>
     </row>
@@ -5578,12 +6171,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.09183596355835599</v>
+        <v>0.09183596355835996</v>
       </c>
       <c r="E198" t="n">
+        <v>4.785169106217963e-25</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.1774783636452484</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>41.2628604669689</v>
       </c>
     </row>
@@ -5604,12 +6200,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.006138444076757652</v>
+        <v>0.006138444076757885</v>
       </c>
       <c r="E199" t="n">
+        <v>0.486634699785538</v>
+      </c>
+      <c r="F199" t="n">
         <v>0.02822952560586257</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>187.0756677381083</v>
       </c>
     </row>
@@ -5630,12 +6229,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.004344445530229433</v>
+        <v>0.004344445530229552</v>
       </c>
       <c r="E200" t="n">
+        <v>0.6211980084944895</v>
+      </c>
+      <c r="F200" t="n">
         <v>0.001804115900184343</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>3.351931698445923</v>
       </c>
     </row>
@@ -5656,12 +6258,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.1866280127642098</v>
+        <v>0.1866280127642088</v>
       </c>
       <c r="E201" t="n">
+        <v>8.066673193256166e-102</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.009322904420507367</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>0.4768938270210974</v>
       </c>
     </row>
